--- a/Base Layout.xlsx
+++ b/Base Layout.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Muggleman\Desktop\Backup\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Muggleman\AppData\Local\Screeps\scripts\screeps.com\screepsScrpt\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="22">
   <si>
     <t>T</t>
   </si>
@@ -62,7 +62,34 @@
     <t>Extension</t>
   </si>
   <si>
-    <t>Can be rotated?</t>
+    <t>La = Lab</t>
+  </si>
+  <si>
+    <t>St = Storage</t>
+  </si>
+  <si>
+    <t>Li = Link</t>
+  </si>
+  <si>
+    <t>O = Observer</t>
+  </si>
+  <si>
+    <t>T = Tower</t>
+  </si>
+  <si>
+    <t>N = Nuker</t>
+  </si>
+  <si>
+    <t>Sp = Spawn</t>
+  </si>
+  <si>
+    <t>PS = Power Spawn</t>
+  </si>
+  <si>
+    <t>Te</t>
+  </si>
+  <si>
+    <t>Te = Terminal</t>
   </si>
 </sst>
 </file>
@@ -535,13 +562,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.109375" style="1" customWidth="1"/>
     <col min="2" max="16384" width="2.77734375" style="1"/>
   </cols>
   <sheetData>
@@ -589,6 +616,9 @@
       <c r="O5" s="9"/>
     </row>
     <row r="6" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="C6" s="10"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -604,7 +634,7 @@
     </row>
     <row r="7" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="3"/>
@@ -620,6 +650,9 @@
       <c r="O7" s="9"/>
     </row>
     <row r="8" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C8" s="8"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -633,6 +666,9 @@
       <c r="O8" s="9"/>
     </row>
     <row r="9" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="C9" s="11"/>
       <c r="D9" s="2"/>
       <c r="E9" s="3"/>
@@ -648,6 +684,9 @@
       <c r="O9" s="9"/>
     </row>
     <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="C10" s="11"/>
       <c r="D10" s="3"/>
       <c r="E10" s="1" t="s">
@@ -671,6 +710,9 @@
       <c r="O10" s="9"/>
     </row>
     <row r="11" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="C11" s="11"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -696,6 +738,9 @@
       </c>
     </row>
     <row r="12" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="C12" s="11"/>
       <c r="D12" s="2"/>
       <c r="E12" s="1" t="s">
@@ -721,6 +766,9 @@
       </c>
     </row>
     <row r="13" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="C13" s="8"/>
       <c r="D13" s="1" t="s">
         <v>7</v>
@@ -737,7 +785,7 @@
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="1" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="M13" s="1" t="s">
         <v>5</v>
@@ -750,6 +798,9 @@
       </c>
     </row>
     <row r="14" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="C14" s="8"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>

--- a/Base Layout.xlsx
+++ b/Base Layout.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="26">
   <si>
     <t>T</t>
   </si>
@@ -90,6 +90,18 @@
   </si>
   <si>
     <t>Te = Terminal</t>
+  </si>
+  <si>
+    <t>Vertical</t>
+  </si>
+  <si>
+    <t>Horizontal</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Order of Extension Placement</t>
   </si>
 </sst>
 </file>
@@ -230,7 +242,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -278,6 +290,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -560,29 +584,67 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O18"/>
+  <dimension ref="A1:AF35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.109375" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="2.77734375" style="1"/>
+    <col min="2" max="2" width="2.77734375" style="1"/>
+    <col min="3" max="12" width="3" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="2.77734375" style="1"/>
+    <col min="16" max="25" width="3" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="2.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="R3" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
+      <c r="U3" s="20"/>
+      <c r="V3" s="20"/>
+      <c r="W3" s="20"/>
+      <c r="X3" s="20"/>
+      <c r="Y3" s="20"/>
+      <c r="Z3" s="20"/>
+      <c r="AA3" s="20"/>
+      <c r="AB3" s="20"/>
+      <c r="AC3" s="20"/>
+      <c r="AD3" s="20"/>
+      <c r="AE3" s="20"/>
+      <c r="AF3" s="20"/>
+    </row>
+    <row r="4" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
@@ -599,8 +661,23 @@
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
       <c r="O4" s="7"/>
-    </row>
-    <row r="5" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R4" s="5"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="18"/>
+      <c r="U4" s="18"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="16"/>
+      <c r="X4" s="16"/>
+      <c r="Y4" s="16"/>
+      <c r="Z4" s="16"/>
+      <c r="AA4" s="6"/>
+      <c r="AB4" s="6"/>
+      <c r="AC4" s="18"/>
+      <c r="AD4" s="18"/>
+      <c r="AE4" s="6"/>
+      <c r="AF4" s="7"/>
+    </row>
+    <row r="5" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
@@ -614,8 +691,25 @@
       <c r="K5" s="3"/>
       <c r="L5" s="2"/>
       <c r="O5" s="9"/>
-    </row>
-    <row r="6" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R5" s="11"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB5" s="3"/>
+      <c r="AC5" s="3"/>
+      <c r="AD5" s="2"/>
+      <c r="AE5" s="2"/>
+      <c r="AF5" s="19"/>
+    </row>
+    <row r="6" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -631,8 +725,27 @@
       <c r="L6" s="2"/>
       <c r="M6" s="3"/>
       <c r="O6" s="9"/>
-    </row>
-    <row r="7" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R6" s="11"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA6" s="3"/>
+      <c r="AB6" s="3"/>
+      <c r="AC6" s="2"/>
+      <c r="AD6" s="2"/>
+      <c r="AE6" s="3"/>
+      <c r="AF6" s="19"/>
+    </row>
+    <row r="7" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
@@ -648,8 +761,27 @@
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="O7" s="9"/>
-    </row>
-    <row r="8" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R7" s="11"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3"/>
+      <c r="AB7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="3"/>
+      <c r="AE7" s="2"/>
+      <c r="AF7" s="19"/>
+    </row>
+    <row r="8" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -664,8 +796,27 @@
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="O8" s="9"/>
-    </row>
-    <row r="9" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R8" s="8"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="3"/>
+      <c r="AD8" s="2"/>
+      <c r="AE8" s="2"/>
+      <c r="AF8" s="9"/>
+    </row>
+    <row r="9" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
@@ -682,8 +833,23 @@
         <v>6</v>
       </c>
       <c r="O9" s="9"/>
-    </row>
-    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R9" s="8"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="3"/>
+      <c r="AB9" s="3"/>
+      <c r="AC9" s="2"/>
+      <c r="AD9" s="2"/>
+      <c r="AF9" s="9"/>
+    </row>
+    <row r="10" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
@@ -708,8 +874,27 @@
         <v>5</v>
       </c>
       <c r="O10" s="9"/>
-    </row>
-    <row r="11" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R10" s="8"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="3"/>
+      <c r="AD10" s="2"/>
+      <c r="AE10" s="2"/>
+      <c r="AF10" s="9"/>
+    </row>
+    <row r="11" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
@@ -736,8 +921,27 @@
       <c r="O11" s="9" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R11" s="11"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="2"/>
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="2"/>
+      <c r="AF11" s="19"/>
+    </row>
+    <row r="12" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
@@ -764,8 +968,27 @@
       <c r="O12" s="9" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R12" s="11"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA12" s="3"/>
+      <c r="AB12" s="3"/>
+      <c r="AC12" s="2"/>
+      <c r="AD12" s="2"/>
+      <c r="AE12" s="3"/>
+      <c r="AF12" s="19"/>
+    </row>
+    <row r="13" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
@@ -796,8 +1019,29 @@
       <c r="O13" s="9" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R13" s="11"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB13" s="3"/>
+      <c r="AC13" s="3"/>
+      <c r="AD13" s="2"/>
+      <c r="AE13" s="2"/>
+      <c r="AF13" s="19"/>
+    </row>
+    <row r="14" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>21</v>
       </c>
@@ -820,8 +1064,24 @@
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="O14" s="9"/>
-    </row>
-    <row r="15" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R14" s="8"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="X14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC14" s="3"/>
+      <c r="AD14" s="3"/>
+      <c r="AF14" s="9"/>
+    </row>
+    <row r="15" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C15" s="10"/>
       <c r="D15" s="3"/>
       <c r="E15" s="2"/>
@@ -834,8 +1094,20 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="O15" s="9"/>
-    </row>
-    <row r="16" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R15" s="8"/>
+      <c r="X15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z15" s="3"/>
+      <c r="AA15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF15" s="9"/>
+    </row>
+    <row r="16" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C16" s="10"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -848,6 +1120,27 @@
       <c r="L16" s="2"/>
       <c r="M16" s="3"/>
       <c r="O16" s="9"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="14"/>
+      <c r="T16" s="14"/>
+      <c r="U16" s="14"/>
+      <c r="V16" s="14"/>
+      <c r="W16" s="14"/>
+      <c r="X16" s="14"/>
+      <c r="Y16" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z16" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA16" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB16" s="14"/>
+      <c r="AC16" s="14"/>
+      <c r="AD16" s="14"/>
+      <c r="AE16" s="14"/>
+      <c r="AF16" s="15"/>
     </row>
     <row r="17" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C17" s="8"/>
@@ -876,7 +1169,278 @@
       <c r="N18" s="14"/>
       <c r="O18" s="15"/>
     </row>
+    <row r="20" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="20"/>
+      <c r="O20" s="20"/>
+    </row>
+    <row r="21" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="5"/>
+      <c r="D21" s="6">
+        <v>16</v>
+      </c>
+      <c r="E21" s="6">
+        <v>15</v>
+      </c>
+      <c r="F21" s="6">
+        <v>14</v>
+      </c>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6">
+        <v>30</v>
+      </c>
+      <c r="K21" s="6">
+        <v>29</v>
+      </c>
+      <c r="L21" s="6">
+        <v>28</v>
+      </c>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="7"/>
+    </row>
+    <row r="22" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="8"/>
+      <c r="D22" s="1">
+        <v>17</v>
+      </c>
+      <c r="F22" s="1">
+        <v>13</v>
+      </c>
+      <c r="G22" s="1">
+        <v>12</v>
+      </c>
+      <c r="I22" s="1">
+        <v>22</v>
+      </c>
+      <c r="J22" s="1">
+        <v>23</v>
+      </c>
+      <c r="L22" s="1">
+        <v>27</v>
+      </c>
+      <c r="O22" s="9"/>
+    </row>
+    <row r="23" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="8"/>
+      <c r="D23" s="1">
+        <v>18</v>
+      </c>
+      <c r="E23" s="1">
+        <v>11</v>
+      </c>
+      <c r="G23" s="1">
+        <v>7</v>
+      </c>
+      <c r="H23" s="1">
+        <v>6</v>
+      </c>
+      <c r="I23" s="1">
+        <v>21</v>
+      </c>
+      <c r="K23" s="1">
+        <v>25</v>
+      </c>
+      <c r="L23" s="1">
+        <v>26</v>
+      </c>
+      <c r="O23" s="9"/>
+    </row>
+    <row r="24" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="8"/>
+      <c r="E24" s="1">
+        <v>10</v>
+      </c>
+      <c r="F24" s="1">
+        <v>9</v>
+      </c>
+      <c r="H24" s="1">
+        <v>5</v>
+      </c>
+      <c r="J24" s="1">
+        <v>20</v>
+      </c>
+      <c r="K24" s="1">
+        <v>24</v>
+      </c>
+      <c r="O24" s="9"/>
+    </row>
+    <row r="25" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C25" s="8"/>
+      <c r="F25" s="1">
+        <v>8</v>
+      </c>
+      <c r="G25" s="1">
+        <v>3</v>
+      </c>
+      <c r="I25" s="1">
+        <v>4</v>
+      </c>
+      <c r="J25" s="1">
+        <v>19</v>
+      </c>
+      <c r="O25" s="9"/>
+    </row>
+    <row r="26" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="8">
+        <v>59</v>
+      </c>
+      <c r="D26" s="1">
+        <v>60</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1</v>
+      </c>
+      <c r="I26" s="1">
+        <v>2</v>
+      </c>
+      <c r="O26" s="9"/>
+    </row>
+    <row r="27" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="8">
+        <v>58</v>
+      </c>
+      <c r="O27" s="9"/>
+    </row>
+    <row r="28" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C28" s="8">
+        <v>57</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O28" s="9"/>
+    </row>
+    <row r="29" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C29" s="8">
+        <v>56</v>
+      </c>
+      <c r="D29" s="1">
+        <v>55</v>
+      </c>
+      <c r="O29" s="9"/>
+    </row>
+    <row r="30" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C30" s="8"/>
+      <c r="O30" s="9"/>
+    </row>
+    <row r="31" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C31" s="8"/>
+      <c r="O31" s="9"/>
+    </row>
+    <row r="32" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C32" s="8"/>
+      <c r="E32" s="1">
+        <v>46</v>
+      </c>
+      <c r="F32" s="1">
+        <v>45</v>
+      </c>
+      <c r="H32" s="1">
+        <v>31</v>
+      </c>
+      <c r="J32" s="1">
+        <v>34</v>
+      </c>
+      <c r="K32" s="1">
+        <v>35</v>
+      </c>
+      <c r="O32" s="9"/>
+    </row>
+    <row r="33" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C33" s="8"/>
+      <c r="D33" s="1">
+        <v>54</v>
+      </c>
+      <c r="E33" s="1">
+        <v>47</v>
+      </c>
+      <c r="G33" s="1">
+        <v>44</v>
+      </c>
+      <c r="H33" s="1">
+        <v>32</v>
+      </c>
+      <c r="I33" s="1">
+        <v>33</v>
+      </c>
+      <c r="K33" s="1">
+        <v>36</v>
+      </c>
+      <c r="L33" s="1">
+        <v>43</v>
+      </c>
+      <c r="O33" s="9"/>
+    </row>
+    <row r="34" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C34" s="8"/>
+      <c r="D34" s="1">
+        <v>53</v>
+      </c>
+      <c r="F34" s="1">
+        <v>49</v>
+      </c>
+      <c r="G34" s="1">
+        <v>48</v>
+      </c>
+      <c r="I34" s="1">
+        <v>37</v>
+      </c>
+      <c r="J34" s="1">
+        <v>38</v>
+      </c>
+      <c r="L34" s="1">
+        <v>42</v>
+      </c>
+      <c r="O34" s="9"/>
+    </row>
+    <row r="35" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C35" s="12"/>
+      <c r="D35" s="17">
+        <v>52</v>
+      </c>
+      <c r="E35" s="17">
+        <v>51</v>
+      </c>
+      <c r="F35" s="17">
+        <v>50</v>
+      </c>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="17">
+        <v>39</v>
+      </c>
+      <c r="K35" s="17">
+        <v>40</v>
+      </c>
+      <c r="L35" s="17">
+        <v>41</v>
+      </c>
+      <c r="M35" s="17"/>
+      <c r="N35" s="17"/>
+      <c r="O35" s="15"/>
+    </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C3:O3"/>
+    <mergeCell ref="R3:AF3"/>
+    <mergeCell ref="C20:O20"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
